--- a/PropertyTabs/exptab.xlsx
+++ b/PropertyTabs/exptab.xlsx
@@ -89,370 +89,370 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
+    <t xml:space="preserve">GS001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般管线点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直埋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铸铁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水表井</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家管网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荆门—襄阳输油管道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏—荆输油管道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西气东输</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中压</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华润燃气</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上杆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家电网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管埋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光纤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国防光缆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国移动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国电信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国联通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX114</t>
+  </si>
+  <si>
     <t xml:space="preserve">XX116</t>
   </si>
   <si>
     <t xml:space="preserve">XX115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一般管线点</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">光纤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国防光缆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国联通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国电信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国移动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上杆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家电网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管埋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直埋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中压</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华润燃气</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家管网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西气东输</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魏—荆输油管道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">355.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5MPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">荆门—襄阳输油管道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铸铁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水表井</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS001</t>
   </si>
 </sst>
 </file>
@@ -604,13 +604,13 @@
         <v>28</v>
       </c>
       <c r="F2" s="1">
-        <v>611713.202</v>
+        <v>607120.649</v>
       </c>
       <c r="G2" s="1">
-        <v>3516790.268</v>
+        <v>3517622.28</v>
       </c>
       <c r="H2" s="1">
-        <v>70.404</v>
+        <v>71.038</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -622,16 +622,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="1">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>28</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>
@@ -661,19 +661,19 @@
         <v>28</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
@@ -681,13 +681,13 @@
         <v>28</v>
       </c>
       <c r="F3" s="1">
-        <v>611715.697</v>
+        <v>607120.649</v>
       </c>
       <c r="G3" s="1">
-        <v>3516785.513</v>
+        <v>3517622.28</v>
       </c>
       <c r="H3" s="1">
-        <v>68.267</v>
+        <v>71.038</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="1">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>28</v>
@@ -738,19 +738,19 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
@@ -758,13 +758,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="1">
-        <v>611709.971</v>
+        <v>607182.813</v>
       </c>
       <c r="G4" s="1">
-        <v>3516794.388</v>
+        <v>3517649.972</v>
       </c>
       <c r="H4" s="1">
-        <v>70.102</v>
+        <v>71.208</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="M4" s="1">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>28</v>
@@ -815,19 +815,19 @@
         <v>28</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
@@ -835,13 +835,13 @@
         <v>28</v>
       </c>
       <c r="F5" s="1">
-        <v>611684.105</v>
+        <v>607239.446</v>
       </c>
       <c r="G5" s="1">
-        <v>3516815.665</v>
+        <v>3517677.11</v>
       </c>
       <c r="H5" s="1">
-        <v>70.1</v>
+        <v>70.943</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M5" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>28</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>28</v>
@@ -892,19 +892,19 @@
         <v>28</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
@@ -912,13 +912,13 @@
         <v>28</v>
       </c>
       <c r="F6" s="1">
-        <v>611667.003</v>
+        <v>607325.097</v>
       </c>
       <c r="G6" s="1">
-        <v>3516829.112</v>
+        <v>3517716.355</v>
       </c>
       <c r="H6" s="1">
-        <v>70.013</v>
+        <v>70.815</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="1">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>28</v>
@@ -957,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>28</v>
@@ -969,19 +969,19 @@
         <v>28</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
@@ -989,13 +989,13 @@
         <v>28</v>
       </c>
       <c r="F7" s="1">
-        <v>611633.155</v>
+        <v>607418.303</v>
       </c>
       <c r="G7" s="1">
-        <v>3516856.974</v>
+        <v>3517758.748</v>
       </c>
       <c r="H7" s="1">
-        <v>69.874</v>
+        <v>70.952</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="M7" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>28</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>28</v>
@@ -1046,19 +1046,19 @@
         <v>28</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1066,13 +1066,13 @@
         <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>611754.69</v>
+        <v>607508.074</v>
       </c>
       <c r="G8" s="1">
-        <v>3516822.386</v>
+        <v>3517799.213</v>
       </c>
       <c r="H8" s="1">
-        <v>67.189</v>
+        <v>71.526</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="M8" s="1">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>28</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>28</v>
@@ -1123,18 +1123,18 @@
         <v>28</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1143,13 +1143,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>611744.764</v>
+        <v>607564.439</v>
       </c>
       <c r="G9" s="1">
-        <v>3516829.555</v>
+        <v>3517825.841</v>
       </c>
       <c r="H9" s="1">
-        <v>69.746</v>
+        <v>70.954</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="M9" s="1">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>28</v>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>28</v>
@@ -1200,15 +1200,15 @@
         <v>28</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -1220,13 +1220,13 @@
         <v>28</v>
       </c>
       <c r="F10" s="1">
-        <v>611705.895</v>
+        <v>607654.319</v>
       </c>
       <c r="G10" s="1">
-        <v>3516858.262</v>
+        <v>3517867.026</v>
       </c>
       <c r="H10" s="1">
-        <v>69.854</v>
+        <v>70.831</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1238,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>28</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>28</v>
@@ -1277,15 +1277,15 @@
         <v>28</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1297,13 +1297,13 @@
         <v>28</v>
       </c>
       <c r="F11" s="1">
-        <v>611678.232</v>
+        <v>607698.145</v>
       </c>
       <c r="G11" s="1">
-        <v>3516878.617</v>
+        <v>3517886.653</v>
       </c>
       <c r="H11" s="1">
-        <v>69.895</v>
+        <v>71.154</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="M11" s="1">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>28</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>28</v>
@@ -1354,18 +1354,18 @@
         <v>28</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1374,13 +1374,13 @@
         <v>28</v>
       </c>
       <c r="F12" s="1">
-        <v>611660.742</v>
+        <v>607749.549</v>
       </c>
       <c r="G12" s="1">
-        <v>3516891.38</v>
+        <v>3517912.422</v>
       </c>
       <c r="H12" s="1">
-        <v>70.002</v>
+        <v>70.612</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="1">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>28</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>28</v>
@@ -1431,18 +1431,18 @@
         <v>28</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -1451,13 +1451,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="1">
-        <v>611761.267</v>
+        <v>611843.002</v>
       </c>
       <c r="G13" s="1">
-        <v>3516830.144</v>
+        <v>3516960.82</v>
       </c>
       <c r="H13" s="1">
-        <v>67.641</v>
+        <v>68.806</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>28</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>28</v>
@@ -1508,54 +1508,54 @@
         <v>28</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1">
+        <v>611857.156</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3516949.741</v>
+      </c>
+      <c r="H14" s="1">
+        <v>68.823</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1">
-        <v>611752.488</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3516836.814</v>
-      </c>
-      <c r="H14" s="1">
-        <v>69.791</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>28</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>28</v>
@@ -1585,33 +1585,33 @@
         <v>28</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>611713.672</v>
+        <v>611868.872</v>
       </c>
       <c r="G15" s="1">
-        <v>3516866.738</v>
+        <v>3516941.119</v>
       </c>
       <c r="H15" s="1">
-        <v>69.828</v>
+        <v>68.199</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L15" s="1">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="1">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>28</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>28</v>
@@ -1662,18 +1662,18 @@
         <v>28</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -1682,13 +1682,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="1">
-        <v>611686.874</v>
+        <v>611878.626</v>
       </c>
       <c r="G16" s="1">
-        <v>3516887.787</v>
+        <v>3516943.021</v>
       </c>
       <c r="H16" s="1">
-        <v>69.816</v>
+        <v>68.325</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>28</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>28</v>
@@ -1739,7 +1739,7 @@
         <v>28</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1750,7 +1750,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
@@ -1759,13 +1759,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="1">
-        <v>611668.934</v>
+        <v>611882.672</v>
       </c>
       <c r="G17" s="1">
-        <v>3516901.299</v>
+        <v>3516939.454</v>
       </c>
       <c r="H17" s="1">
-        <v>69.398</v>
+        <v>68.149</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>28</v>
@@ -1816,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1827,22 +1827,22 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
-        <v>607753.091</v>
+        <v>611880.7</v>
       </c>
       <c r="G18" s="1">
-        <v>3517905.22</v>
+        <v>3516930.265</v>
       </c>
       <c r="H18" s="1">
-        <v>70.796</v>
+        <v>68.256</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1851,40 +1851,40 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>28</v>
@@ -1898,28 +1898,28 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1">
-        <v>607753.318</v>
+        <v>611892.904</v>
       </c>
       <c r="G19" s="1">
-        <v>3517906.258</v>
+        <v>3516919.931</v>
       </c>
       <c r="H19" s="1">
-        <v>70.531</v>
+        <v>68.79</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1931,37 +1931,37 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>28</v>
@@ -1975,28 +1975,28 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1">
-        <v>607752.293</v>
+        <v>611901.502</v>
       </c>
       <c r="G20" s="1">
-        <v>3517906.676</v>
+        <v>3516912.468</v>
       </c>
       <c r="H20" s="1">
-        <v>70.848</v>
+        <v>68.616</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2008,37 +2008,37 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>28</v>
@@ -2052,28 +2052,28 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1">
-        <v>607796.742</v>
+        <v>611887.394</v>
       </c>
       <c r="G21" s="1">
-        <v>3517925.189</v>
+        <v>3516944.148</v>
       </c>
       <c r="H21" s="1">
-        <v>70.397</v>
+        <v>68.237</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2091,31 +2091,31 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>28</v>
@@ -2129,70 +2129,70 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1">
+        <v>609499.365</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3516779.795</v>
+      </c>
+      <c r="H22" s="1">
+        <v>68.353</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1">
-        <v>607795.75</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3517925.521</v>
-      </c>
-      <c r="H22" s="1">
-        <v>70.492</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>28</v>
@@ -2206,28 +2206,28 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1">
-        <v>607796.093</v>
+        <v>609540.852</v>
       </c>
       <c r="G23" s="1">
-        <v>3517926.735</v>
+        <v>3516797.275</v>
       </c>
       <c r="H23" s="1">
-        <v>70.647</v>
+        <v>68.615</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2239,37 +2239,37 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>28</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
@@ -2298,13 +2298,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="1">
-        <v>610443.471</v>
+        <v>609583.586</v>
       </c>
       <c r="G24" s="1">
-        <v>3515807.379</v>
+        <v>3516817.993</v>
       </c>
       <c r="H24" s="1">
-        <v>68.319</v>
+        <v>68.388</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -2316,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>28</v>
@@ -2346,7 +2346,7 @@
         <v>28</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>28</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2375,13 +2375,13 @@
         <v>28</v>
       </c>
       <c r="F25" s="1">
-        <v>610439.977</v>
+        <v>609630.359</v>
       </c>
       <c r="G25" s="1">
-        <v>3515814.248</v>
+        <v>3516838.446</v>
       </c>
       <c r="H25" s="1">
-        <v>69.852</v>
+        <v>68.202</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -2393,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>28</v>
@@ -2423,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>28</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -2452,13 +2452,13 @@
         <v>28</v>
       </c>
       <c r="F26" s="1">
-        <v>610624.054</v>
+        <v>609675.1</v>
       </c>
       <c r="G26" s="1">
-        <v>3515893.064</v>
+        <v>3516858.543</v>
       </c>
       <c r="H26" s="1">
-        <v>69.954</v>
+        <v>68.098</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2470,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>28</v>
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>28</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -2529,13 +2529,13 @@
         <v>28</v>
       </c>
       <c r="F27" s="1">
-        <v>610622.044</v>
+        <v>608129.699</v>
       </c>
       <c r="G27" s="1">
-        <v>3515897.79</v>
+        <v>3517393.272</v>
       </c>
       <c r="H27" s="1">
-        <v>68.599</v>
+        <v>69.303</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2547,20 +2547,20 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M27" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2574,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>28</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
@@ -2606,13 +2606,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="1">
-        <v>610705.565</v>
+        <v>608115.333</v>
       </c>
       <c r="G28" s="1">
-        <v>3515927.554</v>
+        <v>3517367.731</v>
       </c>
       <c r="H28" s="1">
-        <v>68.646</v>
+        <v>69.253</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2624,20 +2624,20 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M28" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>28</v>
@@ -2668,13 +2668,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
@@ -2683,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="F29" s="1">
-        <v>610702.206</v>
+        <v>608084.644</v>
       </c>
       <c r="G29" s="1">
-        <v>3515933.743</v>
+        <v>3517305.454</v>
       </c>
       <c r="H29" s="1">
-        <v>68.695</v>
+        <v>69.568</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2701,20 +2701,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M29" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2728,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>28</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
@@ -2760,13 +2760,13 @@
         <v>28</v>
       </c>
       <c r="F30" s="1">
-        <v>610855.84</v>
+        <v>608068.437</v>
       </c>
       <c r="G30" s="1">
-        <v>3515995.924</v>
+        <v>3517272.861</v>
       </c>
       <c r="H30" s="1">
-        <v>67.964</v>
+        <v>69.571</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2778,20 +2778,20 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2805,16 +2805,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>28</v>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
@@ -2837,13 +2837,13 @@
         <v>28</v>
       </c>
       <c r="F31" s="1">
-        <v>610849.451</v>
+        <v>608049.914</v>
       </c>
       <c r="G31" s="1">
-        <v>3516001.137</v>
+        <v>3517235.169</v>
       </c>
       <c r="H31" s="1">
-        <v>68.405</v>
+        <v>69.606</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2855,20 +2855,20 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="M31" s="1">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q31" s="1" t="s">
         <v>28</v>
       </c>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>28</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
@@ -2914,13 +2914,13 @@
         <v>28</v>
       </c>
       <c r="F32" s="1">
-        <v>611976.853</v>
+        <v>608032.481</v>
       </c>
       <c r="G32" s="1">
-        <v>3516847.797</v>
+        <v>3517198.556</v>
       </c>
       <c r="H32" s="1">
-        <v>68.226</v>
+        <v>69.237</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2932,19 +2932,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M32" s="1">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>28</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>28</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
@@ -2991,13 +2991,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="1">
-        <v>611879.902</v>
+        <v>608028.099</v>
       </c>
       <c r="G33" s="1">
-        <v>3516928.056</v>
+        <v>3517189.432</v>
       </c>
       <c r="H33" s="1">
-        <v>69.266</v>
+        <v>69.462</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3009,19 +3009,19 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="M33" s="1">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>28</v>
@@ -3036,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>28</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
@@ -3068,13 +3068,13 @@
         <v>28</v>
       </c>
       <c r="F34" s="1">
-        <v>611860.947</v>
+        <v>608016.735</v>
       </c>
       <c r="G34" s="1">
-        <v>3516944.037</v>
+        <v>3517166.945</v>
       </c>
       <c r="H34" s="1">
-        <v>68.905</v>
+        <v>69.42</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -3086,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M34" s="1">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>28</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>28</v>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
@@ -3145,13 +3145,13 @@
         <v>28</v>
       </c>
       <c r="F35" s="1">
-        <v>611810.51</v>
+        <v>608001.23</v>
       </c>
       <c r="G35" s="1">
-        <v>3516983.305</v>
+        <v>3517135.88</v>
       </c>
       <c r="H35" s="1">
-        <v>68.571</v>
+        <v>69.643</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3163,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M35" s="1">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>28</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>28</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
@@ -3222,13 +3222,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="1">
-        <v>611753.804</v>
+        <v>607982.593</v>
       </c>
       <c r="G36" s="1">
-        <v>3517028.599</v>
+        <v>3517097.813</v>
       </c>
       <c r="H36" s="1">
-        <v>68.365</v>
+        <v>69.7</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="M36" s="1">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>28</v>
@@ -3267,16 +3267,16 @@
         <v>0</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>28</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
@@ -3299,13 +3299,13 @@
         <v>28</v>
       </c>
       <c r="F37" s="1">
-        <v>608717.921</v>
+        <v>610996.606</v>
       </c>
       <c r="G37" s="1">
-        <v>3516969.169</v>
+        <v>3515972.494</v>
       </c>
       <c r="H37" s="1">
-        <v>68.329</v>
+        <v>68.208</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="M37" s="1">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>28</v>
@@ -3344,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>28</v>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
@@ -3376,13 +3376,13 @@
         <v>28</v>
       </c>
       <c r="F38" s="1">
-        <v>608715.569</v>
+        <v>610976.529</v>
       </c>
       <c r="G38" s="1">
-        <v>3516992.862</v>
+        <v>3515985.59</v>
       </c>
       <c r="H38" s="1">
-        <v>68.472</v>
+        <v>69.522</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M38" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>28</v>
@@ -3421,16 +3421,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>28</v>
@@ -3438,13 +3438,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
@@ -3453,13 +3453,13 @@
         <v>28</v>
       </c>
       <c r="F39" s="1">
-        <v>608713.827</v>
+        <v>610938.803</v>
       </c>
       <c r="G39" s="1">
-        <v>3517013.277</v>
+        <v>3516013.791</v>
       </c>
       <c r="H39" s="1">
-        <v>68.29</v>
+        <v>68.462</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="M39" s="1">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>28</v>
@@ -3498,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>28</v>
@@ -3515,13 +3515,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
@@ -3530,13 +3530,13 @@
         <v>28</v>
       </c>
       <c r="F40" s="1">
-        <v>608712.031</v>
+        <v>610921.76</v>
       </c>
       <c r="G40" s="1">
-        <v>3517033.173</v>
+        <v>3516026.626</v>
       </c>
       <c r="H40" s="1">
-        <v>68.293</v>
+        <v>69.218</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="M40" s="1">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>28</v>
@@ -3575,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>28</v>
@@ -3592,13 +3592,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
@@ -3607,13 +3607,13 @@
         <v>28</v>
       </c>
       <c r="F41" s="1">
-        <v>608710.492</v>
+        <v>610916.69</v>
       </c>
       <c r="G41" s="1">
-        <v>3517051.58</v>
+        <v>3516030.158</v>
       </c>
       <c r="H41" s="1">
-        <v>68.228</v>
+        <v>69.227</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3625,16 +3625,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="M41" s="1">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>28</v>
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>28</v>
@@ -3669,13 +3669,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
@@ -3684,13 +3684,13 @@
         <v>28</v>
       </c>
       <c r="F42" s="1">
-        <v>608705.823</v>
+        <v>610904.274</v>
       </c>
       <c r="G42" s="1">
-        <v>3517067.879</v>
+        <v>3516040.184</v>
       </c>
       <c r="H42" s="1">
-        <v>67.893</v>
+        <v>68.719</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -3702,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M42" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>28</v>
@@ -3729,16 +3729,16 @@
         <v>0</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>28</v>
@@ -3746,13 +3746,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -3761,13 +3761,13 @@
         <v>28</v>
       </c>
       <c r="F43" s="1">
-        <v>608694.399</v>
+        <v>610892.945</v>
       </c>
       <c r="G43" s="1">
-        <v>3517104.925</v>
+        <v>3516048.697</v>
       </c>
       <c r="H43" s="1">
-        <v>68.055</v>
+        <v>68.966</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="M43" s="1">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>28</v>
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>28</v>
@@ -3823,13 +3823,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -3838,13 +3838,13 @@
         <v>28</v>
       </c>
       <c r="F44" s="1">
-        <v>608681.539</v>
+        <v>610866.024</v>
       </c>
       <c r="G44" s="1">
-        <v>3517144.137</v>
+        <v>3516069.859</v>
       </c>
       <c r="H44" s="1">
-        <v>68.294</v>
+        <v>68.991</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -3856,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="M44" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>28</v>
@@ -3883,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>28</v>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
@@ -3915,13 +3915,13 @@
         <v>28</v>
       </c>
       <c r="F45" s="1">
-        <v>608672.387</v>
+        <v>610832.452</v>
       </c>
       <c r="G45" s="1">
-        <v>3517171.711</v>
+        <v>3516094.966</v>
       </c>
       <c r="H45" s="1">
-        <v>68.121</v>
+        <v>68.796</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="M45" s="1">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>28</v>
@@ -3960,16 +3960,16 @@
         <v>0</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>28</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>27</v>
@@ -3992,13 +3992,13 @@
         <v>28</v>
       </c>
       <c r="F46" s="1">
-        <v>608660.758</v>
+        <v>610802.114</v>
       </c>
       <c r="G46" s="1">
-        <v>3517203.813</v>
+        <v>3516117.316</v>
       </c>
       <c r="H46" s="1">
-        <v>68.432</v>
+        <v>69.001</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M46" s="1">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>28</v>
@@ -4037,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>28</v>
@@ -4054,13 +4054,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>27</v>
@@ -4069,13 +4069,13 @@
         <v>28</v>
       </c>
       <c r="F47" s="1">
-        <v>610802.114</v>
+        <v>608660.758</v>
       </c>
       <c r="G47" s="1">
-        <v>3516117.316</v>
+        <v>3517203.813</v>
       </c>
       <c r="H47" s="1">
-        <v>69.001</v>
+        <v>68.432</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M47" s="1">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>28</v>
@@ -4114,16 +4114,16 @@
         <v>0</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>28</v>
@@ -4131,13 +4131,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>27</v>
@@ -4146,13 +4146,13 @@
         <v>28</v>
       </c>
       <c r="F48" s="1">
-        <v>610832.452</v>
+        <v>608672.387</v>
       </c>
       <c r="G48" s="1">
-        <v>3516094.966</v>
+        <v>3517171.711</v>
       </c>
       <c r="H48" s="1">
-        <v>68.796</v>
+        <v>68.121</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="M48" s="1">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>28</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>28</v>
@@ -4208,13 +4208,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>27</v>
@@ -4223,13 +4223,13 @@
         <v>28</v>
       </c>
       <c r="F49" s="1">
-        <v>610866.024</v>
+        <v>608681.539</v>
       </c>
       <c r="G49" s="1">
-        <v>3516069.859</v>
+        <v>3517144.137</v>
       </c>
       <c r="H49" s="1">
-        <v>68.991</v>
+        <v>68.294</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4241,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="M49" s="1">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>28</v>
@@ -4268,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>28</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>27</v>
@@ -4300,13 +4300,13 @@
         <v>28</v>
       </c>
       <c r="F50" s="1">
-        <v>610892.945</v>
+        <v>608694.399</v>
       </c>
       <c r="G50" s="1">
-        <v>3516048.697</v>
+        <v>3517104.925</v>
       </c>
       <c r="H50" s="1">
-        <v>68.966</v>
+        <v>68.055</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -4318,16 +4318,16 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="M50" s="1">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>28</v>
@@ -4345,16 +4345,16 @@
         <v>0</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>28</v>
@@ -4362,13 +4362,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>27</v>
@@ -4377,13 +4377,13 @@
         <v>28</v>
       </c>
       <c r="F51" s="1">
-        <v>610904.274</v>
+        <v>608705.823</v>
       </c>
       <c r="G51" s="1">
-        <v>3516040.184</v>
+        <v>3517067.879</v>
       </c>
       <c r="H51" s="1">
-        <v>68.719</v>
+        <v>67.893</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -4395,16 +4395,16 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M51" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>28</v>
@@ -4422,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>28</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>27</v>
@@ -4454,13 +4454,13 @@
         <v>28</v>
       </c>
       <c r="F52" s="1">
-        <v>610916.69</v>
+        <v>608710.492</v>
       </c>
       <c r="G52" s="1">
-        <v>3516030.158</v>
+        <v>3517051.58</v>
       </c>
       <c r="H52" s="1">
-        <v>69.227</v>
+        <v>68.228</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4472,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M52" s="1">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>28</v>
@@ -4499,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>28</v>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>27</v>
@@ -4531,13 +4531,13 @@
         <v>28</v>
       </c>
       <c r="F53" s="1">
-        <v>610921.76</v>
+        <v>608712.031</v>
       </c>
       <c r="G53" s="1">
-        <v>3516026.626</v>
+        <v>3517033.173</v>
       </c>
       <c r="H53" s="1">
-        <v>69.218</v>
+        <v>68.293</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4549,16 +4549,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="M53" s="1">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>28</v>
@@ -4576,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>28</v>
@@ -4593,13 +4593,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>27</v>
@@ -4608,13 +4608,13 @@
         <v>28</v>
       </c>
       <c r="F54" s="1">
-        <v>610938.803</v>
+        <v>608713.827</v>
       </c>
       <c r="G54" s="1">
-        <v>3516013.791</v>
+        <v>3517013.277</v>
       </c>
       <c r="H54" s="1">
-        <v>68.462</v>
+        <v>68.29</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -4626,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M54" s="1">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>28</v>
@@ -4653,16 +4653,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>28</v>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>27</v>
@@ -4685,13 +4685,13 @@
         <v>28</v>
       </c>
       <c r="F55" s="1">
-        <v>610976.529</v>
+        <v>608715.569</v>
       </c>
       <c r="G55" s="1">
-        <v>3515985.59</v>
+        <v>3516992.862</v>
       </c>
       <c r="H55" s="1">
-        <v>69.522</v>
+        <v>68.472</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4703,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M55" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>28</v>
@@ -4730,16 +4730,16 @@
         <v>0</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>28</v>
@@ -4747,13 +4747,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>27</v>
@@ -4762,13 +4762,13 @@
         <v>28</v>
       </c>
       <c r="F56" s="1">
-        <v>610996.606</v>
+        <v>608717.921</v>
       </c>
       <c r="G56" s="1">
-        <v>3515972.494</v>
+        <v>3516969.169</v>
       </c>
       <c r="H56" s="1">
-        <v>68.208</v>
+        <v>68.329</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4780,16 +4780,16 @@
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="M56" s="1">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>28</v>
@@ -4807,16 +4807,16 @@
         <v>0</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>28</v>
@@ -4824,13 +4824,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>27</v>
@@ -4839,13 +4839,13 @@
         <v>28</v>
       </c>
       <c r="F57" s="1">
-        <v>607982.593</v>
+        <v>611753.804</v>
       </c>
       <c r="G57" s="1">
-        <v>3517097.813</v>
+        <v>3517028.599</v>
       </c>
       <c r="H57" s="1">
-        <v>69.7</v>
+        <v>68.365</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4857,19 +4857,19 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="M57" s="1">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>28</v>
@@ -4884,16 +4884,16 @@
         <v>0</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>28</v>
@@ -4901,13 +4901,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>27</v>
@@ -4916,13 +4916,13 @@
         <v>28</v>
       </c>
       <c r="F58" s="1">
-        <v>608001.23</v>
+        <v>611810.51</v>
       </c>
       <c r="G58" s="1">
-        <v>3517135.88</v>
+        <v>3516983.305</v>
       </c>
       <c r="H58" s="1">
-        <v>69.643</v>
+        <v>68.571</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -4934,19 +4934,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="M58" s="1">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>28</v>
@@ -4961,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>28</v>
@@ -4978,13 +4978,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>27</v>
@@ -4993,13 +4993,13 @@
         <v>28</v>
       </c>
       <c r="F59" s="1">
-        <v>608016.735</v>
+        <v>611860.947</v>
       </c>
       <c r="G59" s="1">
-        <v>3517166.945</v>
+        <v>3516944.037</v>
       </c>
       <c r="H59" s="1">
-        <v>69.42</v>
+        <v>68.905</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -5011,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M59" s="1">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>28</v>
@@ -5038,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>28</v>
@@ -5055,13 +5055,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>27</v>
@@ -5070,13 +5070,13 @@
         <v>28</v>
       </c>
       <c r="F60" s="1">
-        <v>608028.099</v>
+        <v>611879.902</v>
       </c>
       <c r="G60" s="1">
-        <v>3517189.432</v>
+        <v>3516928.056</v>
       </c>
       <c r="H60" s="1">
-        <v>69.462</v>
+        <v>69.266</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -5088,19 +5088,19 @@
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="M60" s="1">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>28</v>
@@ -5115,16 +5115,16 @@
         <v>0</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>28</v>
@@ -5132,13 +5132,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>27</v>
@@ -5147,13 +5147,13 @@
         <v>28</v>
       </c>
       <c r="F61" s="1">
-        <v>608032.481</v>
+        <v>611976.853</v>
       </c>
       <c r="G61" s="1">
-        <v>3517198.556</v>
+        <v>3516847.797</v>
       </c>
       <c r="H61" s="1">
-        <v>69.237</v>
+        <v>68.226</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -5165,19 +5165,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="M61" s="1">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>28</v>
@@ -5192,16 +5192,16 @@
         <v>0</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>28</v>
@@ -5209,13 +5209,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>27</v>
@@ -5224,13 +5224,13 @@
         <v>28</v>
       </c>
       <c r="F62" s="1">
-        <v>608049.914</v>
+        <v>610849.451</v>
       </c>
       <c r="G62" s="1">
-        <v>3517235.169</v>
+        <v>3516001.137</v>
       </c>
       <c r="H62" s="1">
-        <v>69.606</v>
+        <v>68.405</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -5242,19 +5242,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="P62" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>28</v>
@@ -5269,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>28</v>
@@ -5286,13 +5286,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>27</v>
@@ -5301,13 +5301,13 @@
         <v>28</v>
       </c>
       <c r="F63" s="1">
-        <v>608068.437</v>
+        <v>610855.84</v>
       </c>
       <c r="G63" s="1">
-        <v>3517272.861</v>
+        <v>3515995.924</v>
       </c>
       <c r="H63" s="1">
-        <v>69.571</v>
+        <v>67.964</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="P63" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>28</v>
@@ -5346,16 +5346,16 @@
         <v>0</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>28</v>
@@ -5363,13 +5363,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>27</v>
@@ -5378,13 +5378,13 @@
         <v>28</v>
       </c>
       <c r="F64" s="1">
-        <v>608084.644</v>
+        <v>610702.206</v>
       </c>
       <c r="G64" s="1">
-        <v>3517305.454</v>
+        <v>3515933.743</v>
       </c>
       <c r="H64" s="1">
-        <v>69.568</v>
+        <v>68.695</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -5396,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M64" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="P64" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>28</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>28</v>
@@ -5440,13 +5440,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>27</v>
@@ -5455,13 +5455,13 @@
         <v>28</v>
       </c>
       <c r="F65" s="1">
-        <v>608115.333</v>
+        <v>610705.565</v>
       </c>
       <c r="G65" s="1">
-        <v>3517367.731</v>
+        <v>3515927.554</v>
       </c>
       <c r="H65" s="1">
-        <v>69.253</v>
+        <v>68.646</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -5473,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M65" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="P65" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>28</v>
@@ -5500,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y65" s="1" t="s">
         <v>28</v>
@@ -5517,13 +5517,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>27</v>
@@ -5532,13 +5532,13 @@
         <v>28</v>
       </c>
       <c r="F66" s="1">
-        <v>608129.699</v>
+        <v>610622.044</v>
       </c>
       <c r="G66" s="1">
-        <v>3517393.272</v>
+        <v>3515897.79</v>
       </c>
       <c r="H66" s="1">
-        <v>69.303</v>
+        <v>68.599</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -5550,19 +5550,19 @@
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M66" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="P66" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>28</v>
@@ -5577,16 +5577,16 @@
         <v>0</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>28</v>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>28</v>
@@ -5609,13 +5609,13 @@
         <v>28</v>
       </c>
       <c r="F67" s="1">
-        <v>609675.1</v>
+        <v>610624.054</v>
       </c>
       <c r="G67" s="1">
-        <v>3516858.543</v>
+        <v>3515893.064</v>
       </c>
       <c r="H67" s="1">
-        <v>68.098</v>
+        <v>69.954</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -5627,16 +5627,16 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M67" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>28</v>
@@ -5657,7 +5657,7 @@
         <v>28</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W67" s="1" t="s">
         <v>28</v>
@@ -5671,13 +5671,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>27</v>
@@ -5686,13 +5686,13 @@
         <v>28</v>
       </c>
       <c r="F68" s="1">
-        <v>609630.359</v>
+        <v>610439.977</v>
       </c>
       <c r="G68" s="1">
-        <v>3516838.446</v>
+        <v>3515814.248</v>
       </c>
       <c r="H68" s="1">
-        <v>68.202</v>
+        <v>69.852</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -5704,16 +5704,16 @@
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M68" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>28</v>
@@ -5734,7 +5734,7 @@
         <v>28</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W68" s="1" t="s">
         <v>28</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>27</v>
@@ -5763,13 +5763,13 @@
         <v>28</v>
       </c>
       <c r="F69" s="1">
-        <v>609583.586</v>
+        <v>610443.471</v>
       </c>
       <c r="G69" s="1">
-        <v>3516817.993</v>
+        <v>3515807.379</v>
       </c>
       <c r="H69" s="1">
-        <v>68.388</v>
+        <v>68.319</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -5781,16 +5781,16 @@
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M69" s="1">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>28</v>
@@ -5811,7 +5811,7 @@
         <v>28</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W69" s="1" t="s">
         <v>28</v>
@@ -5825,28 +5825,28 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1">
-        <v>609540.852</v>
+        <v>607796.093</v>
       </c>
       <c r="G70" s="1">
-        <v>3516797.275</v>
+        <v>3517926.735</v>
       </c>
       <c r="H70" s="1">
-        <v>68.615</v>
+        <v>70.647</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -5858,37 +5858,37 @@
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="V70" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W70" s="1" t="s">
         <v>28</v>
@@ -5902,28 +5902,28 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F71" s="1">
-        <v>609499.365</v>
+        <v>607795.75</v>
       </c>
       <c r="G71" s="1">
-        <v>3516779.795</v>
+        <v>3517925.521</v>
       </c>
       <c r="H71" s="1">
-        <v>68.353</v>
+        <v>70.492</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -5935,37 +5935,37 @@
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="V71" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W71" s="1" t="s">
         <v>28</v>
@@ -5979,28 +5979,28 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F72" s="1">
-        <v>611887.394</v>
+        <v>607796.742</v>
       </c>
       <c r="G72" s="1">
-        <v>3516944.148</v>
+        <v>3517925.189</v>
       </c>
       <c r="H72" s="1">
-        <v>68.237</v>
+        <v>70.397</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -6018,31 +6018,31 @@
         <v>0</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>28</v>
@@ -6056,28 +6056,28 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F73" s="1">
-        <v>611901.502</v>
+        <v>607752.293</v>
       </c>
       <c r="G73" s="1">
-        <v>3516912.468</v>
+        <v>3517906.676</v>
       </c>
       <c r="H73" s="1">
-        <v>68.616</v>
+        <v>70.848</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -6089,37 +6089,37 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R73" s="1">
         <v>1</v>
       </c>
-      <c r="M73" s="1">
+      <c r="S73" s="1">
         <v>1</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W73" s="1" t="s">
         <v>28</v>
@@ -6133,28 +6133,28 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F74" s="1">
-        <v>611892.904</v>
+        <v>607753.318</v>
       </c>
       <c r="G74" s="1">
-        <v>3516919.931</v>
+        <v>3517906.258</v>
       </c>
       <c r="H74" s="1">
-        <v>68.79</v>
+        <v>70.531</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -6166,37 +6166,37 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R74" s="1">
         <v>1</v>
       </c>
-      <c r="M74" s="1">
+      <c r="S74" s="1">
         <v>1</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
       <c r="T74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>28</v>
@@ -6210,28 +6210,28 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F75" s="1">
-        <v>611880.7</v>
+        <v>607753.091</v>
       </c>
       <c r="G75" s="1">
-        <v>3516930.265</v>
+        <v>3517905.22</v>
       </c>
       <c r="H75" s="1">
-        <v>68.256</v>
+        <v>70.796</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -6240,40 +6240,40 @@
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M75" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="W75" s="1" t="s">
         <v>28</v>
@@ -6293,84 +6293,84 @@
         <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="1">
+        <v>611668.934</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3516901.299</v>
+      </c>
+      <c r="H76" s="1">
+        <v>69.398</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y76" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="1">
-        <v>611882.672</v>
-      </c>
-      <c r="G76" s="1">
-        <v>3516939.454</v>
-      </c>
-      <c r="H76" s="1">
-        <v>68.149</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-      <c r="T76" s="1">
-        <v>0</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y76" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>27</v>
@@ -6379,13 +6379,13 @@
         <v>28</v>
       </c>
       <c r="F77" s="1">
-        <v>611878.626</v>
+        <v>611686.874</v>
       </c>
       <c r="G77" s="1">
-        <v>3516943.021</v>
+        <v>3516887.787</v>
       </c>
       <c r="H77" s="1">
-        <v>68.325</v>
+        <v>69.816</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -6397,16 +6397,16 @@
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M77" s="1">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>28</v>
@@ -6424,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>28</v>
@@ -6436,33 +6436,33 @@
         <v>28</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F78" s="1">
-        <v>611868.872</v>
+        <v>611713.672</v>
       </c>
       <c r="G78" s="1">
-        <v>3516941.119</v>
+        <v>3516866.738</v>
       </c>
       <c r="H78" s="1">
-        <v>68.199</v>
+        <v>69.828</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -6471,19 +6471,19 @@
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>0.3</v>
+        <v>0.86</v>
       </c>
       <c r="M78" s="1">
-        <v>0.3</v>
+        <v>0.86</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>28</v>
@@ -6501,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W78" s="1" t="s">
         <v>28</v>
@@ -6513,15 +6513,15 @@
         <v>28</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>133</v>
@@ -6533,13 +6533,13 @@
         <v>28</v>
       </c>
       <c r="F79" s="1">
-        <v>611857.156</v>
+        <v>611752.488</v>
       </c>
       <c r="G79" s="1">
-        <v>3516949.741</v>
+        <v>3516836.814</v>
       </c>
       <c r="H79" s="1">
-        <v>68.823</v>
+        <v>69.791</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -6551,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M79" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>28</v>
@@ -6578,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>28</v>
@@ -6590,18 +6590,18 @@
         <v>28</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>27</v>
@@ -6610,13 +6610,13 @@
         <v>28</v>
       </c>
       <c r="F80" s="1">
-        <v>611843.002</v>
+        <v>611761.267</v>
       </c>
       <c r="G80" s="1">
-        <v>3516960.82</v>
+        <v>3516830.144</v>
       </c>
       <c r="H80" s="1">
-        <v>68.806</v>
+        <v>67.641</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -6634,10 +6634,10 @@
         <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>28</v>
@@ -6655,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W80" s="1" t="s">
         <v>28</v>
@@ -6667,169 +6667,169 @@
         <v>28</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="1">
+        <v>611660.742</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3516891.38</v>
+      </c>
+      <c r="H81" s="1">
+        <v>70.002</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y81" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="1">
-        <v>607749.549</v>
-      </c>
-      <c r="G81" s="1">
-        <v>3517912.422</v>
-      </c>
-      <c r="H81" s="1">
-        <v>70.612</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1">
-        <v>0</v>
-      </c>
-      <c r="L81" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M81" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R81" s="1">
-        <v>0</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1">
-        <v>0</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y81" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="1">
+        <v>611678.232</v>
+      </c>
+      <c r="G82" s="1">
+        <v>3516878.617</v>
+      </c>
+      <c r="H82" s="1">
+        <v>69.895</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y82" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="1">
-        <v>607698.145</v>
-      </c>
-      <c r="G82" s="1">
-        <v>3517886.653</v>
-      </c>
-      <c r="H82" s="1">
-        <v>71.154</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y82" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>138</v>
@@ -6841,13 +6841,13 @@
         <v>28</v>
       </c>
       <c r="F83" s="1">
-        <v>607654.319</v>
+        <v>611705.895</v>
       </c>
       <c r="G83" s="1">
-        <v>3517867.026</v>
+        <v>3516858.262</v>
       </c>
       <c r="H83" s="1">
-        <v>70.831</v>
+        <v>69.854</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -6859,16 +6859,16 @@
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M83" s="1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>28</v>
@@ -6886,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W83" s="1" t="s">
         <v>28</v>
@@ -6898,15 +6898,15 @@
         <v>28</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>139</v>
@@ -6918,13 +6918,13 @@
         <v>28</v>
       </c>
       <c r="F84" s="1">
-        <v>607564.439</v>
+        <v>611744.764</v>
       </c>
       <c r="G84" s="1">
-        <v>3517825.841</v>
+        <v>3516829.555</v>
       </c>
       <c r="H84" s="1">
-        <v>70.954</v>
+        <v>69.746</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -6936,16 +6936,16 @@
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="M84" s="1">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>28</v>
@@ -6963,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>28</v>
@@ -6975,18 +6975,18 @@
         <v>28</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>27</v>
@@ -6995,13 +6995,13 @@
         <v>28</v>
       </c>
       <c r="F85" s="1">
-        <v>607508.074</v>
+        <v>611754.69</v>
       </c>
       <c r="G85" s="1">
-        <v>3517799.213</v>
+        <v>3516822.386</v>
       </c>
       <c r="H85" s="1">
-        <v>71.526</v>
+        <v>67.189</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -7013,16 +7013,16 @@
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="M85" s="1">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>28</v>
@@ -7040,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W85" s="1" t="s">
         <v>28</v>
@@ -7052,15 +7052,15 @@
         <v>28</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>141</v>
@@ -7072,13 +7072,13 @@
         <v>28</v>
       </c>
       <c r="F86" s="1">
-        <v>607418.303</v>
+        <v>611633.155</v>
       </c>
       <c r="G86" s="1">
-        <v>3517758.748</v>
+        <v>3516856.974</v>
       </c>
       <c r="H86" s="1">
-        <v>70.952</v>
+        <v>69.874</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="M86" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>28</v>
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W86" s="1" t="s">
         <v>28</v>
@@ -7129,96 +7129,96 @@
         <v>28</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="1">
+        <v>611667.003</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3516829.112</v>
+      </c>
+      <c r="H87" s="1">
+        <v>70.013</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y87" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F87" s="1">
-        <v>607325.097</v>
-      </c>
-      <c r="G87" s="1">
-        <v>3517716.355</v>
-      </c>
-      <c r="H87" s="1">
-        <v>70.815</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M87" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y87" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D88" s="1" t="s">
         <v>27</v>
       </c>
@@ -7226,13 +7226,13 @@
         <v>28</v>
       </c>
       <c r="F88" s="1">
-        <v>607239.446</v>
+        <v>611684.105</v>
       </c>
       <c r="G88" s="1">
-        <v>3517677.11</v>
+        <v>3516815.665</v>
       </c>
       <c r="H88" s="1">
-        <v>70.943</v>
+        <v>70.1</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -7244,16 +7244,16 @@
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="M88" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>28</v>
@@ -7271,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>28</v>
@@ -7283,19 +7283,19 @@
         <v>28</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D89" s="1" t="s">
         <v>27</v>
       </c>
@@ -7303,13 +7303,13 @@
         <v>28</v>
       </c>
       <c r="F89" s="1">
-        <v>607182.813</v>
+        <v>611709.971</v>
       </c>
       <c r="G89" s="1">
-        <v>3517649.972</v>
+        <v>3516794.388</v>
       </c>
       <c r="H89" s="1">
-        <v>71.208</v>
+        <v>70.102</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
@@ -7321,16 +7321,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="M89" s="1">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>28</v>
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>28</v>
@@ -7360,7 +7360,7 @@
         <v>28</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
@@ -7371,7 +7371,7 @@
         <v>146</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>27</v>
@@ -7380,13 +7380,13 @@
         <v>28</v>
       </c>
       <c r="F90" s="1">
-        <v>607120.649</v>
+        <v>611715.697</v>
       </c>
       <c r="G90" s="1">
-        <v>3517622.28</v>
+        <v>3516785.513</v>
       </c>
       <c r="H90" s="1">
-        <v>71.038</v>
+        <v>68.267</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M90" s="1">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>28</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W90" s="1" t="s">
         <v>28</v>
@@ -7437,19 +7437,19 @@
         <v>28</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D91" s="1" t="s">
         <v>27</v>
       </c>
@@ -7457,13 +7457,13 @@
         <v>28</v>
       </c>
       <c r="F91" s="1">
-        <v>607120.649</v>
+        <v>611713.202</v>
       </c>
       <c r="G91" s="1">
-        <v>3517622.28</v>
+        <v>3516790.268</v>
       </c>
       <c r="H91" s="1">
-        <v>71.038</v>
+        <v>70.404</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -7475,16 +7475,16 @@
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="M91" s="1">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>28</v>
@@ -7502,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>28</v>
@@ -7514,7 +7514,7 @@
         <v>28</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
